--- a/ProductBacklog.xlsx
+++ b/ProductBacklog.xlsx
@@ -514,7 +514,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,8 +536,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,6 +563,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -569,16 +582,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -878,32 +893,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -914,39 +929,55 @@
       <c r="B3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G4" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G5" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G6" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G7" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -954,36 +985,53 @@
       <c r="B8">
         <v>1.2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G9" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G10" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G11" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G12" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -991,36 +1039,53 @@
       <c r="B13">
         <v>1.3</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G14" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G15" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G16" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G17" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1028,31 +1093,44 @@
       <c r="B18">
         <v>1.4</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G19" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G20" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G21" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1060,36 +1138,53 @@
       <c r="B22">
         <v>1.5</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G23" s="1" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G24" s="1" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G25" s="1" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G26" s="1" t="s">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1097,36 +1192,53 @@
       <c r="B27">
         <v>1.6</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G28" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G29" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G30" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G31" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1137,39 +1249,55 @@
       <c r="B32">
         <v>2.1</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G33" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G34" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G35" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G36" t="s">
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1177,36 +1305,53 @@
       <c r="B37">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D37" t="s">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G38" t="s">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G39" t="s">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G40" t="s">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G41" t="s">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1214,36 +1359,53 @@
       <c r="B42">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D42" t="s">
+      <c r="C42" s="4"/>
+      <c r="D42" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G43" t="s">
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G44" t="s">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G45" t="s">
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G46" t="s">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1254,34 +1416,46 @@
       <c r="B47">
         <v>3.1</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="4" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G48" t="s">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G49" t="s">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G50" t="s">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1289,31 +1463,44 @@
       <c r="B51">
         <v>3.2</v>
       </c>
-      <c r="D51" t="s">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G52" t="s">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G53" t="s">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G54" t="s">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1321,31 +1508,44 @@
       <c r="B55">
         <v>3.3</v>
       </c>
-      <c r="D55" t="s">
+      <c r="C55" s="4"/>
+      <c r="D55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G56" t="s">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G57" t="s">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G58" t="s">
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1562,31 +1762,44 @@
       <c r="B84">
         <v>5.3</v>
       </c>
-      <c r="D84" t="s">
+      <c r="C84" s="6"/>
+      <c r="D84" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G85" t="s">
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G86" t="s">
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G87" t="s">
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1632,31 +1845,44 @@
       <c r="B92">
         <v>6.2</v>
       </c>
-      <c r="D92" t="s">
+      <c r="C92" s="6"/>
+      <c r="D92" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G93" t="s">
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G94" t="s">
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G95" t="s">
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6" t="s">
         <v>153</v>
       </c>
     </row>
